--- a/my_package/traj_excel_10/tested_robot_traj_7_.xlsx
+++ b/my_package/traj_excel_10/tested_robot_traj_7_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-1.732704007046913</v>
+        <v>1.732704007046913</v>
       </c>
       <c r="C1" t="n">
-        <v>1.37626565528972</v>
+        <v>0.1945306715051764</v>
       </c>
       <c r="D1" t="n">
-        <v>0.672838158291254</v>
+        <v>-0.672838158291254</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8673686043034796</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796292848413</v>
+        <v>1.570796292848413</v>
       </c>
       <c r="G1" t="n">
         <v>0.161907685808031</v>
@@ -449,19 +449,19 @@
         <v>0.2212268479722121</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.778290465355663</v>
+        <v>1.778290465355663</v>
       </c>
       <c r="C2" t="n">
-        <v>1.377354323596729</v>
+        <v>0.1934420031981677</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6758680428538398</v>
+        <v>-0.6758680428538398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.869309796466788</v>
+        <v>0.7014865303281086</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796289207822</v>
+        <v>1.570796289207822</v>
       </c>
       <c r="G2" t="n">
         <v>0.2074941448287797</v>
@@ -472,19 +472,19 @@
         <v>0.4424536959444241</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.982548021645145</v>
+        <v>1.982548021645145</v>
       </c>
       <c r="C3" t="n">
-        <v>1.382232279381171</v>
+        <v>0.1885640474137254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6894439344574702</v>
+        <v>-0.6894439344574702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8780076243366395</v>
+        <v>0.6927887024582571</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796272895559</v>
+        <v>1.570796272895559</v>
       </c>
       <c r="G3" t="n">
         <v>0.411751704308488</v>
@@ -495,19 +495,19 @@
         <v>0.6636805439166362</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.269919010210249</v>
+        <v>2.269919010210249</v>
       </c>
       <c r="C4" t="n">
-        <v>1.389095100034745</v>
+        <v>0.1817012267601512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.708543924987362</v>
+        <v>-0.708543924987362</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8902446423384895</v>
+        <v>0.680551684456407</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796249945755</v>
+        <v>1.570796249945755</v>
       </c>
       <c r="G4" t="n">
         <v>0.6991226973619369</v>
@@ -518,19 +518,19 @@
         <v>0.8849073918888483</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.474176566499732</v>
+        <v>2.474176566499732</v>
       </c>
       <c r="C5" t="n">
-        <v>1.393973055819188</v>
+        <v>0.1768232709757089</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7221198165909923</v>
+        <v>-0.7221198165909923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8989424702083411</v>
+        <v>0.6718538565865555</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796233633492</v>
+        <v>1.570796233633492</v>
       </c>
       <c r="G5" t="n">
         <v>0.9033802568416449</v>
@@ -541,19 +541,19 @@
         <v>1.10613423986106</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.519763024808483</v>
+        <v>2.519763024808483</v>
       </c>
       <c r="C6" t="n">
-        <v>1.395061724126196</v>
+        <v>0.1757346026687003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7251497011535781</v>
+        <v>-0.7251497011535781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9008836623716494</v>
+        <v>0.6699126644232472</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796229992901</v>
+        <v>1.570796229992901</v>
       </c>
       <c r="G6" t="n">
         <v>0.9489667158623929</v>
